--- a/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
+++ b/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AE3CE-E2A2-D44E-B723-DEECF79D0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCABD-813D-6B44-96F4-6BB88476E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="840" windowWidth="35520" windowHeight="19600" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
+    <workbookView xWindow="4800" yWindow="1400" windowWidth="35520" windowHeight="19600" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>conc</t>
-  </si>
-  <si>
-    <t>lofentanyl</t>
   </si>
   <si>
     <t>Apo-Gi</t>
@@ -72,12 +69,21 @@
   <si>
     <t>lofentanil-Gi</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +94,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,12 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6D784-14E3-CF43-B83D-016E7ECE788B}">
-  <dimension ref="A1:AE73"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B73"/>
+      <selection activeCell="L21" sqref="L21:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,15 +453,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B2">
-        <v>0.81980769940060294</v>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5746655465517938</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -472,10 +469,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B3">
-        <v>0.85553258913027808</v>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.45489830760789673</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -483,704 +480,664 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1E-8</v>
-      </c>
-      <c r="B4">
-        <v>0.83637850387365642</v>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.473808924283249</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4">
-        <v>-6</v>
-      </c>
-      <c r="H4">
-        <f>10^G4</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I4">
-        <v>9.9999999999999995E-7</v>
+      <c r="D4">
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <f>10^D4</f>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J4">
-        <v>119.622335733388</v>
+        <v>57.990420655910199</v>
       </c>
       <c r="K4">
-        <v>118.10372194945001</v>
+        <v>51.9159655201559</v>
       </c>
       <c r="L4">
-        <v>116.61747996366501</v>
+        <v>53.935388599048203</v>
       </c>
       <c r="M4">
-        <v>104.44291197483101</v>
+        <v>61.997219069882298</v>
       </c>
       <c r="N4">
-        <v>119.423744764812</v>
+        <v>51.177728721562197</v>
       </c>
       <c r="O4">
-        <v>111.126616161513</v>
+        <v>41.606641105740401</v>
       </c>
       <c r="P4">
-        <v>122.872491889114</v>
+        <v>48.518733975808701</v>
       </c>
       <c r="Q4">
-        <v>118.213047053889</v>
+        <v>43.178178811033703</v>
       </c>
       <c r="R4">
-        <v>118.795477658292</v>
+        <v>50.749776668274301</v>
       </c>
       <c r="S4">
         <f>AVERAGE(J4:R4)</f>
-        <v>116.579758572106</v>
+        <v>51.230005903046205</v>
       </c>
       <c r="T4">
-        <v>0.80302887369396014</v>
+        <v>0.69785236114380456</v>
       </c>
       <c r="U4">
         <f>(T4-T11)/(S4-S11)</f>
-        <v>5.5146754929209403E-3</v>
+        <v>1.2167791245458994E-2</v>
       </c>
       <c r="V4">
         <f>(S4*T11-T4*S11)/(S4-S11)</f>
-        <v>0.16012933612572725</v>
+        <v>7.449634381190634E-2</v>
       </c>
       <c r="W4">
         <f>J4*$U$4+$V$4</f>
-        <v>0.81980769940060294</v>
+        <v>0.78011167658937497</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:AE11" si="0">K4*$U$4+$V$4</f>
-        <v>0.81143303718310811</v>
+        <f t="shared" ref="X4:AF11" si="0">K4*$U$4+$V$4</f>
+        <v>0.70619897456761027</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.80323689492754946</v>
+        <v>0.73077089302783382</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.73609810320262681</v>
+        <v>0.82886556325322358</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.81871253465308136</v>
+        <v>0.69721626331260622</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.77295656288285508</v>
+        <v>0.58075726721128862</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.83773125590075126</v>
+        <v>0.66486217032350536</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.81203592965731886</v>
+        <v>0.59987940994366529</v>
       </c>
       <c r="AE4">
-        <f>R4*$U$4+$V$4</f>
-        <v>0.8152478454377472</v>
+        <f t="shared" si="0"/>
+        <v>0.69200903206513353</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="B5">
-        <v>0.66265283684950416</v>
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.36349699367702804</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5">
-        <v>-7</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H11" si="1">10^G5</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="I5">
-        <v>9.9999999999999995E-8</v>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="1">10^D5</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J5">
-        <v>126.10048476963399</v>
+        <v>55.050308482495403</v>
       </c>
       <c r="K5">
-        <v>123.095628999911</v>
+        <v>61.512271619664297</v>
       </c>
       <c r="L5">
-        <v>111.04383412286499</v>
+        <v>68.0066065549873</v>
       </c>
       <c r="M5">
-        <v>110.268791393157</v>
+        <v>52.387797034024203</v>
       </c>
       <c r="N5">
-        <v>119.839879008979</v>
+        <v>53.220065522356499</v>
       </c>
       <c r="O5">
-        <v>107.355851683994</v>
+        <v>50.684925637322998</v>
       </c>
       <c r="P5">
-        <v>109.091516833733</v>
+        <v>55.024150349389998</v>
       </c>
       <c r="Q5">
-        <v>106.663114690974</v>
+        <v>61.045815843715197</v>
       </c>
       <c r="R5">
-        <v>115.399573757021</v>
+        <v>60.660744689605998</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W11" si="2">J5*$U$4+$V$4</f>
-        <v>0.85553258913027808</v>
+        <v>0.7443370054250309</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.8389617846572246</v>
+        <v>0.82296482391395331</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.77250004680306883</v>
+        <v>0.90198653568505516</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.76822593765558167</v>
+        <v>0.71194012193138878</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.82100737997115436</v>
+        <v>0.72206699115758988</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.75216202042910418</v>
+        <v>0.69121993825846517</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.76173365049428676</v>
+        <v>0.74401871872203351</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.74834180071065703</v>
+        <v>0.81728908740696604</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.79652053741709339</v>
+        <v>0.81260362198911729</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.26808916219418905</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J6">
+        <v>57.521983159110597</v>
+      </c>
+      <c r="K6">
+        <v>54.032503993510602</v>
+      </c>
+      <c r="L6">
+        <v>69.008225144894993</v>
+      </c>
+      <c r="M6">
+        <v>67.823098488208501</v>
+      </c>
+      <c r="N6">
+        <v>50.345460233229801</v>
+      </c>
+      <c r="O6">
+        <v>67.406964244042399</v>
+      </c>
+      <c r="P6">
+        <v>60.6510969431273</v>
+      </c>
+      <c r="Q6">
+        <v>65.310541778352302</v>
+      </c>
+      <c r="R6">
+        <v>51.332207272677401</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0.77441182691677191</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0.73195257287437276</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0.9141740215946228</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0.89975364783663281</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0.68708939408640379</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0.89469021322353282</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0.81248623022397548</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0.86918138229872532</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0.6990959260744769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1E-10</v>
       </c>
-      <c r="B6">
-        <v>0.5655435108518323</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6">
+      <c r="B7" s="1">
+        <v>0.24215387001018507</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
         <v>-8</v>
       </c>
-      <c r="H6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>1E-8</v>
       </c>
-      <c r="I6">
-        <v>1E-8</v>
-      </c>
-      <c r="J6">
-        <v>122.62719150311101</v>
-      </c>
-      <c r="K6">
-        <v>119.08915464028</v>
-      </c>
-      <c r="L6">
-        <v>116.116670668711</v>
-      </c>
-      <c r="M6">
-        <v>113.597865346486</v>
-      </c>
-      <c r="N6">
-        <v>95.287958603175099</v>
-      </c>
-      <c r="O6">
-        <v>110.684925637323</v>
-      </c>
-      <c r="P6">
-        <v>104.136032823067</v>
-      </c>
-      <c r="Q6">
-        <v>99.081869087255001</v>
-      </c>
-      <c r="R6">
-        <v>109.377908262695</v>
-      </c>
-      <c r="W6">
+      <c r="J7">
+        <v>57.990420655910199</v>
+      </c>
+      <c r="K7">
+        <v>58.038978353141403</v>
+      </c>
+      <c r="L7">
+        <v>58.5559735471723</v>
+      </c>
+      <c r="M7">
+        <v>59.4876354648732</v>
+      </c>
+      <c r="N7">
+        <v>64.494024534879202</v>
+      </c>
+      <c r="O7">
+        <v>56.965273719851901</v>
+      </c>
+      <c r="P7">
+        <v>52.980819360739801</v>
+      </c>
+      <c r="Q7">
+        <v>51.529566722971303</v>
+      </c>
+      <c r="R7">
+        <v>53.464570239996</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="2"/>
-        <v>0.83637850387365642</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0.8168673786931514</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0.80047509418203955</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>0.7865847002001265</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0.68561150620512201</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0.77052078297364912</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>0.7344057642651054</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>0.70653369137401323</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>0.76331300628896614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>0.78011167658937497</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0.78070251651264444</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.78699320610851786</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0.79832947383444641</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0.85924617093182709</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0.76763790267549559</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0.71915589380676037</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0.70149735466597174</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0.7250420735203571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="B7">
-        <v>0.44678607879494336</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7">
+      <c r="B8" s="1">
+        <v>0.19802909776769703</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8">
         <v>-9</v>
       </c>
-      <c r="H7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I7">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="J7">
-        <v>91.12476361825</v>
-      </c>
-      <c r="K7">
-        <v>96.617479963665005</v>
-      </c>
-      <c r="L7">
-        <v>98.604531244403006</v>
-      </c>
-      <c r="M7">
-        <v>99.0331668006706</v>
-      </c>
-      <c r="N7">
-        <v>98.994832380633994</v>
-      </c>
-      <c r="O7">
-        <v>100.69770377733499</v>
-      </c>
-      <c r="P7">
-        <v>101.125200075905</v>
-      </c>
-      <c r="Q7">
-        <v>105.883324636277</v>
-      </c>
-      <c r="R7">
-        <v>107.72929617463301</v>
-      </c>
-      <c r="W7">
+      <c r="J8">
+        <v>32.964523217386898</v>
+      </c>
+      <c r="K8">
+        <v>34.030885403602902</v>
+      </c>
+      <c r="L8">
+        <v>25.4523837930792</v>
+      </c>
+      <c r="M8">
+        <v>40.097057500731303</v>
+      </c>
+      <c r="N8">
+        <v>37.184117791568198</v>
+      </c>
+      <c r="O8">
+        <v>33.022775349906603</v>
+      </c>
+      <c r="P8">
+        <v>37.649911942443403</v>
+      </c>
+      <c r="Q8">
+        <v>37.3538727670025</v>
+      </c>
+      <c r="R8">
+        <v>31.0458158437152</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="2"/>
-        <v>0.66265283684950416</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>0.69294338506913056</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0.70390132807019368</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0.70626511406773707</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0.70605371218102586</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0.71544449534000887</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>0.71780199870104733</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>0.74404151160639598</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>0.75422144560959747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8">
+        <v>0.47560178082715637</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0.48857705330108397</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.38419563650539784</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0.56238896903797064</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0.52694492674626581</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0.47631058061525899</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0.53261261273747129</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>0.52901046985022848</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>0.45225535004319628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="B8">
-        <v>0.27003083108236609</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8">
+      <c r="B9" s="1">
+        <v>0.23427444639545528</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9">
         <v>-10</v>
       </c>
-      <c r="H8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>1E-10</v>
       </c>
-      <c r="I8">
-        <v>1E-10</v>
-      </c>
-      <c r="J8">
-        <v>73.515508799479804</v>
-      </c>
-      <c r="K8">
-        <v>80.090773230188006</v>
-      </c>
-      <c r="L8">
-        <v>80.623954323296005</v>
-      </c>
-      <c r="M8">
-        <v>62.829487558214602</v>
-      </c>
-      <c r="N8">
-        <v>76.561917615697894</v>
-      </c>
-      <c r="O8">
-        <v>76.133005231519604</v>
-      </c>
-      <c r="P8">
-        <v>92.684780185299005</v>
-      </c>
-      <c r="Q8">
-        <v>80.059018592246005</v>
-      </c>
-      <c r="R8">
-        <v>81.036168097236597</v>
-      </c>
-      <c r="W8">
+      <c r="J9">
+        <v>17.113169098182802</v>
+      </c>
+      <c r="K9">
+        <v>12.4798998215102</v>
+      </c>
+      <c r="L9">
+        <v>13.4491466132638</v>
+      </c>
+      <c r="M9">
+        <v>18.445298664078798</v>
+      </c>
+      <c r="N9">
+        <v>23.400575174036302</v>
+      </c>
+      <c r="O9">
+        <v>23.867821978251101</v>
+      </c>
+      <c r="P9">
+        <v>24.581130750022101</v>
+      </c>
+      <c r="Q9">
+        <v>25.803940404087101</v>
+      </c>
+      <c r="R9">
+        <v>23.416269541215801</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="2"/>
-        <v>0.5655435108518323</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>0.60180396046733353</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0.60474428117478507</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>0.50661357139579444</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0.58234346689204841</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0.57997815427841015</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>0.67125582198036005</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>0.60162884394368821</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>0.60701750637177965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1E-13</v>
-      </c>
-      <c r="B9">
-        <v>0.22154874737161903</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9">
+        <v>0.28272581294683441</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.22634915960428342</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.23814275223167208</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0.29893488741656082</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0.35922965755325031</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0.36491501912704383</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0.37359441135550814</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0.38847330395910296</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0.35942062333682007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B10">
+        <v>0.59987970211893005</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="H9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I9">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="J9">
-        <v>51.980709116463998</v>
-      </c>
-      <c r="K9">
-        <v>44.468569692156301</v>
-      </c>
-      <c r="L9">
-        <v>53.983946296279399</v>
-      </c>
-      <c r="M9">
-        <v>45.780761687414198</v>
-      </c>
-      <c r="N9">
-        <v>57.835876628220603</v>
-      </c>
-      <c r="O9">
-        <v>39.954882269087904</v>
-      </c>
-      <c r="P9">
-        <v>49.782274909762002</v>
-      </c>
-      <c r="Q9">
-        <v>41.430886997824402</v>
-      </c>
-      <c r="R9">
-        <v>50.749776668274301</v>
-      </c>
-      <c r="W9">
+      <c r="J10">
+        <v>12.1228806376291</v>
+      </c>
+      <c r="K10">
+        <v>16.471806871971701</v>
+      </c>
+      <c r="L10">
+        <v>13.4507652031715</v>
+      </c>
+      <c r="M10">
+        <v>19.967660409099999</v>
+      </c>
+      <c r="N10">
+        <v>10.3965727932784</v>
+      </c>
+      <c r="O10">
+        <v>11.2160631415986</v>
+      </c>
+      <c r="P10">
+        <v>13.998700145619001</v>
+      </c>
+      <c r="Q10">
+        <v>12.8338389368128</v>
+      </c>
+      <c r="R10">
+        <v>21.0458158437152</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="2"/>
-        <v>0.44678607879494336</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0.40535906761230844</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0.45783328177697946</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0.41259538065056423</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0.47907542757897437</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>0.3804675461976077</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>0.43466242755244477</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>0.38860723330260627</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>0.43999788578947041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>0.22200502470419406</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0.27492185126557489</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0.23816244689578098</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>0.31745866733005146</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>0.20099967122873641</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>0.21097105871476507</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>0.24482960489157476</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>0.23065581687288789</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>0.33057743758860636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10">
-        <v>0.81143303718310811</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10">
+      <c r="B11">
+        <v>0.51635781180279161</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11">
         <v>-12</v>
       </c>
-      <c r="H10">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="I10">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="J10">
-        <v>19.928914239417502</v>
-      </c>
-      <c r="K10">
-        <v>11.1212620477214</v>
-      </c>
-      <c r="L10">
-        <v>47.974234756833198</v>
-      </c>
-      <c r="M10">
-        <v>9.5643043049460594</v>
-      </c>
-      <c r="N10">
-        <v>24.545137094927899</v>
-      </c>
-      <c r="O10">
-        <v>12.8422656982268</v>
-      </c>
-      <c r="P10">
-        <v>22.408036502815399</v>
-      </c>
-      <c r="Q10">
-        <v>23.1781788110337</v>
-      </c>
-      <c r="R10">
-        <v>17.3538727670025</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>0.27003083108236609</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>0.22145948739064819</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0.42469167283087128</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>0.21287337068305151</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>0.29548780213351078</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>0.23095026404531782</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>0.28370238587228119</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="0"/>
-        <v>0.28794947078547417</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>0.25583031298118403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B11">
-        <v>0.8389617846572246</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11">
-        <v>-13</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>1E-13</v>
-      </c>
-      <c r="I11">
-        <v>1E-13</v>
-      </c>
       <c r="J11">
-        <v>11.1374479467984</v>
+        <v>14.4523837930792</v>
       </c>
       <c r="K11">
-        <v>17.664154680275601</v>
+        <v>7.4086818655711397</v>
       </c>
       <c r="L11">
-        <v>9.6188341628598693</v>
+        <v>15.644731601383199</v>
       </c>
       <c r="M11">
-        <v>12.8806001182632</v>
+        <v>14.948493199081801</v>
       </c>
       <c r="N11">
-        <v>16.6385864557707</v>
+        <v>14.1417809907738</v>
       </c>
       <c r="O11">
-        <v>13.700090466583401</v>
+        <v>13.725646746607699</v>
       </c>
       <c r="P11">
-        <v>10.364705514164999</v>
+        <v>12.9904671072184</v>
       </c>
       <c r="Q11">
-        <v>9.3972037556528303</v>
+        <v>11.3946040468907</v>
       </c>
       <c r="R11">
-        <v>13.1781788110337</v>
+        <v>10.5620649644591</v>
       </c>
       <c r="S11">
         <f>AVERAGE(J11:R11)</f>
-        <v>12.731089101266967</v>
+        <v>12.807650479451672</v>
       </c>
       <c r="T11">
         <v>0.2303371611906771</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>0.22154874737161903</v>
+        <v>0.2503499328053489</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>0.25754141704420785</v>
+        <v>0.16464363815619365</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>0.21317408515412128</v>
+        <v>0.26485817202877249</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>0.23116166593202786</v>
+        <v>0.25638648849249718</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>0.25188574109021222</v>
+        <v>0.2465705827466422</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>0.23568088927259453</v>
+        <v>0.24150714813354224</v>
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>0.2172873236160355</v>
+        <v>0.23256163575354141</v>
       </c>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>0.21195186537901053</v>
+        <v>0.21314350717913463</v>
       </c>
       <c r="AE11">
         <f t="shared" si="0"/>
-        <v>0.2328027158562648</v>
+        <v>0.20301334542042093</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B12">
-        <v>0.8168673786931514</v>
+        <v>0.40289411175067846</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1188,10 +1145,10 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="B13">
-        <v>0.69294338506913056</v>
+        <v>0.43283592148665273</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1199,10 +1156,10 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="B14">
-        <v>0.60180396046733353</v>
+        <v>0.33985872283283769</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1210,185 +1167,399 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.9999999999999994E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="B15">
-        <v>0.40535906761230844</v>
+        <v>0.23742621584134699</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="B16">
-        <v>0.22145948739064819</v>
+        <v>0.21378794499715714</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1E-13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25754141704420785</v>
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="B17">
+        <v>0.22409800144091185</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B18">
-        <v>0.80323689492754946</v>
+        <v>0.51950958124868341</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B19">
-        <v>0.77250004680306883</v>
+        <v>0.46120184649968066</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B20">
-        <v>0.80047509418203955</v>
+        <v>0.38555937979827254</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="B21">
-        <v>0.70390132807019368</v>
+        <v>0.29573395059034968</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>0.78011167658937497</v>
+      </c>
+      <c r="M21">
+        <v>0.70619897456761027</v>
+      </c>
+      <c r="N21">
+        <v>0.73077089302783382</v>
+      </c>
+      <c r="O21">
+        <v>0.82886556325322358</v>
+      </c>
+      <c r="P21">
+        <v>0.69721626331260622</v>
+      </c>
+      <c r="Q21">
+        <v>0.58075726721128862</v>
+      </c>
+      <c r="R21">
+        <v>0.66486217032350536</v>
+      </c>
+      <c r="S21">
+        <v>0.59987940994366529</v>
+      </c>
+      <c r="T21">
+        <v>0.69200903206513353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="B22">
-        <v>0.60474428117478507</v>
+        <v>0.26178562330240462</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>0.7443370054250309</v>
+      </c>
+      <c r="M22">
+        <v>0.82296482391395331</v>
+      </c>
+      <c r="N22">
+        <v>0.90198653568505516</v>
+      </c>
+      <c r="O22">
+        <v>0.71194012193138878</v>
+      </c>
+      <c r="P22">
+        <v>0.72206699115758988</v>
+      </c>
+      <c r="Q22">
+        <v>0.69121993825846517</v>
+      </c>
+      <c r="R22">
+        <v>0.74401871872203351</v>
+      </c>
+      <c r="S22">
+        <v>0.81728908740696604</v>
+      </c>
+      <c r="T22">
+        <v>0.81260362198911729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>9.9999999999999994E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="B23">
-        <v>0.45783328177697946</v>
+        <v>0.22797090750367111</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0.77441182691677191</v>
+      </c>
+      <c r="M23">
+        <v>0.73195257287437276</v>
+      </c>
+      <c r="N23">
+        <v>0.9141740215946228</v>
+      </c>
+      <c r="O23">
+        <v>0.89975364783663281</v>
+      </c>
+      <c r="P23">
+        <v>0.68708939408640379</v>
+      </c>
+      <c r="Q23">
+        <v>0.89469021322353282</v>
+      </c>
+      <c r="R23">
+        <v>0.81248623022397548</v>
+      </c>
+      <c r="S23">
+        <v>0.86918138229872532</v>
+      </c>
+      <c r="T23">
+        <v>0.6990959260744769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B24">
+        <v>0.21693971444304916</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="L24">
+        <v>0.78011167658937497</v>
+      </c>
+      <c r="M24">
+        <v>0.78070251651264444</v>
+      </c>
+      <c r="N24">
+        <v>0.78699320610851786</v>
+      </c>
+      <c r="O24">
+        <v>0.79832947383444641</v>
+      </c>
+      <c r="P24">
+        <v>0.85924617093182709</v>
+      </c>
+      <c r="Q24">
+        <v>0.76763790267549559</v>
+      </c>
+      <c r="R24">
+        <v>0.71915589380676037</v>
+      </c>
+      <c r="S24">
+        <v>0.70149735466597174</v>
+      </c>
+      <c r="T24">
+        <v>0.7250420735203571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="B24">
-        <v>0.42469167283087128</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1E-13</v>
-      </c>
       <c r="B25">
-        <v>0.21317408515412128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.21933484891397265</v>
+      </c>
+      <c r="L25">
+        <v>0.47560178082715637</v>
+      </c>
+      <c r="M25">
+        <v>0.48857705330108397</v>
+      </c>
+      <c r="N25">
+        <v>0.38419563650539784</v>
+      </c>
+      <c r="O25">
+        <v>0.56238896903797064</v>
+      </c>
+      <c r="P25">
+        <v>0.52694492674626581</v>
+      </c>
+      <c r="Q25">
+        <v>0.47631058061525899</v>
+      </c>
+      <c r="R25">
+        <v>0.53261261273747129</v>
+      </c>
+      <c r="S25">
+        <v>0.52901046985022848</v>
+      </c>
+      <c r="T25">
+        <v>0.45225535004319628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B26">
+        <v>0.67890383166110957</v>
+      </c>
+      <c r="L26">
+        <v>0.28272581294683441</v>
+      </c>
+      <c r="M26">
+        <v>0.22634915960428342</v>
+      </c>
+      <c r="N26">
+        <v>0.23814275223167208</v>
+      </c>
+      <c r="O26">
+        <v>0.29893488741656082</v>
+      </c>
+      <c r="P26">
+        <v>0.35922965755325031</v>
+      </c>
+      <c r="Q26">
+        <v>0.36491501912704383</v>
+      </c>
+      <c r="R26">
+        <v>0.37359441135550814</v>
+      </c>
+      <c r="S26">
+        <v>0.38847330395910296</v>
+      </c>
+      <c r="T26">
+        <v>0.35942062333682007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B26">
-        <v>0.73609810320262681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B27">
+        <v>0.56609313673009343</v>
+      </c>
+      <c r="L27">
+        <v>0.22200502470419406</v>
+      </c>
+      <c r="M27">
+        <v>0.27492185126557489</v>
+      </c>
+      <c r="N27">
+        <v>0.23816244689578098</v>
+      </c>
+      <c r="O27">
+        <v>0.31745866733005146</v>
+      </c>
+      <c r="P27">
+        <v>0.20099967122873641</v>
+      </c>
+      <c r="Q27">
+        <v>0.21097105871476507</v>
+      </c>
+      <c r="R27">
+        <v>0.24482960489157476</v>
+      </c>
+      <c r="S27">
+        <v>0.23065581687288789</v>
+      </c>
+      <c r="T27">
+        <v>0.33057743758860636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B27">
-        <v>0.76822593765558167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B28">
+        <v>0.56183612937420613</v>
+      </c>
+      <c r="L28">
+        <v>0.2503499328053489</v>
+      </c>
+      <c r="M28">
+        <v>0.16464363815619365</v>
+      </c>
+      <c r="N28">
+        <v>0.26485817202877249</v>
+      </c>
+      <c r="O28">
+        <v>0.25638648849249718</v>
+      </c>
+      <c r="P28">
+        <v>0.2465705827466422</v>
+      </c>
+      <c r="Q28">
+        <v>0.24150714813354224</v>
+      </c>
+      <c r="R28">
+        <v>0.23256163575354141</v>
+      </c>
+      <c r="S28">
+        <v>0.21314350717913463</v>
+      </c>
+      <c r="T28">
+        <v>0.20301334542042093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1E-8</v>
       </c>
-      <c r="B28">
-        <v>0.7865847002001265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B29">
+        <v>0.54267959627271245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B29">
-        <v>0.70626511406773707</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B30">
+        <v>0.32757000583941687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1E-10</v>
       </c>
-      <c r="B30">
-        <v>0.50661357139579444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B31">
+        <v>0.27448813285180595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="B31">
-        <v>0.41259538065056423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B32">
+        <v>0.24681758503853776</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="B32">
-        <v>0.21287337068305151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1E-13</v>
-      </c>
       <c r="B33">
-        <v>0.23116166593202786</v>
+        <v>0.25526624026982181</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0.76966283880932296</v>
@@ -1397,15 +1568,15 @@
         <v>0.2303371611906771</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B34">
-        <v>0.81871253465308136</v>
+        <v>0.66400430591550386</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0.81552520738223366</v>
@@ -1414,15 +1585,15 @@
         <v>0.1844747926177662</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B35">
-        <v>0.82100737997115436</v>
+        <v>0.59163518086541766</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>0.37111308152967171</v>
@@ -1430,16 +1601,22 @@
       <c r="G35">
         <v>0.62888691847032818</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>5.1149447751139693E-3</v>
+      </c>
+      <c r="I35">
+        <v>0.17874016360486056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36">
-        <v>0.68561150620512201</v>
+        <v>0.54693660362859986</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>0.35027196636081398</v>
@@ -1448,15 +1625,15 @@
         <v>0.64972803363918596</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="B37">
-        <v>0.70605371218102586</v>
+        <v>0.46605346386673907</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0.30214763885619544</v>
@@ -1464,16 +1641,22 @@
       <c r="G37">
         <v>0.69785236114380456</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1.2167791245458994E-2</v>
+      </c>
+      <c r="I37">
+        <v>7.449634381190634E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="B38">
-        <v>0.58234346689204841</v>
+        <v>0.30854419169890535</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>0.25641416287592267</v>
@@ -1482,15 +1665,15 @@
         <v>0.74358583712407733</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>9.9999999999999994E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="B39">
-        <v>0.47907542757897437</v>
+        <v>0.32976386899785182</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <v>0.33995128941572783</v>
@@ -1499,15 +1682,15 @@
         <v>0.66004871058427217</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="B40">
-        <v>0.29548780213351078</v>
+        <v>0.3255722211224551</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>0.26495565201854032</v>
@@ -1516,15 +1699,15 @@
         <v>0.73504434798145968</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1E-13</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="B41">
-        <v>0.25188574109021222</v>
+        <v>0.22553254825910049</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>0.17129137786921034</v>
@@ -1533,15 +1716,15 @@
         <v>0.82870862213078955</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B42">
-        <v>0.77295656288285508</v>
+        <v>0.64697627649195411</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>0.19697112630603994</v>
@@ -1549,253 +1732,451 @@
       <c r="G42">
         <v>0.80302887369396014</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>5.5146754929209403E-3</v>
+      </c>
+      <c r="I42">
+        <v>0.16012933612572725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B43">
+        <v>0.61930572867868594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B43">
-        <v>0.75216202042910418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="B44">
+        <v>0.59376368454336159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>1E-8</v>
       </c>
-      <c r="B44">
-        <v>0.77052078297364912</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="B45">
+        <v>0.39794134617254073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B45">
-        <v>0.71544449534000887</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="B46">
+        <v>0.31479898377175441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>1E-10</v>
       </c>
-      <c r="B46">
-        <v>0.57997815427841015</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="B47">
+        <v>0.31479898377175441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="B47">
-        <v>0.3804675461976077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>9.9999999999999998E-13</v>
-      </c>
       <c r="B48">
-        <v>0.23095026404531782</v>
+        <v>0.26797190285699313</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1E-13</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="B49">
-        <v>0.23568088927259453</v>
+        <v>0.22739961401508135</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B50">
-        <v>0.83773125590075126</v>
+        <v>0.67170178069649178</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B51">
-        <v>0.76173365049428676</v>
+        <v>0.57536108594792901</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B52">
-        <v>0.7344057642651054</v>
+        <v>0.57591517498292122</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="B53">
-        <v>0.71780199870104733</v>
+        <v>0.40060364640239476</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="B54">
-        <v>0.67125582198036005</v>
+        <v>0.26851374713153325</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>9.9999999999999994E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="B55">
-        <v>0.43466242755244477</v>
+        <v>0.27199758885294167</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="B56">
-        <v>0.28370238587228119</v>
+        <v>0.20595263921751056</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1E-13</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="B57">
-        <v>0.2172873236160355</v>
+        <v>0.2557962011822475</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B58">
-        <v>0.81203592965731886</v>
+        <v>0.64287091192656898</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B59">
-        <v>0.74834180071065703</v>
+        <v>0.66422935590912247</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B60">
-        <v>0.70653369137401323</v>
+        <v>0.58131928670164523</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="B61">
-        <v>0.74404151160639598</v>
+        <v>0.39959416371329409</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="B62">
-        <v>0.60162884394368821</v>
+        <v>0.29154540570454635</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>9.9999999999999994E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="B63">
-        <v>0.38860723330260627</v>
+        <v>0.26523824365737214</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="B64">
-        <v>0.28794947078547417</v>
+        <v>0.24518568546121719</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1E-13</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="B65">
-        <v>0.21195186537901053</v>
+        <v>0.23196339816738212</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B66">
+        <v>0.64534527095887628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B66">
-        <v>0.8152478454377472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="B67">
+        <v>0.58429838707850346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B67">
-        <v>0.79652053741709339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="B68">
+        <v>0.51779804378896521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>1E-8</v>
       </c>
-      <c r="B68">
-        <v>0.76331300628896614</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="B69">
+        <v>0.43135478516963466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B69">
-        <v>0.75422144560959747</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="B70">
+        <v>0.33208433773465573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>1E-10</v>
       </c>
-      <c r="B70">
-        <v>0.60701750637177965</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="B71">
+        <v>0.24367146142756671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="B71">
-        <v>0.43999788578947041</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="B72">
+        <v>0.23922748470750096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="B72">
-        <v>0.25583031298118403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>1E-13</v>
-      </c>
       <c r="B73">
-        <v>0.2328027158562648</v>
+        <v>0.20938713324847602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B74">
+        <v>0.66397023275113032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B75">
+        <v>0.46254799450576489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B76">
+        <v>0.52137041806414586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1E-8</v>
+      </c>
+      <c r="B77">
+        <v>0.4090730639981458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B78">
+        <v>0.30034070529932011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1E-10</v>
+      </c>
+      <c r="B79">
+        <v>0.25399576552604997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B80">
+        <v>0.2201283095378912</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="B81">
+        <v>0.27182074236192333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B82">
+        <v>0.65327524664960646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B83">
+        <v>0.53384790184925679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B84">
+        <v>0.51493695486759961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1E-8</v>
+      </c>
+      <c r="B85">
+        <v>0.42689804083401861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B86">
+        <v>0.32529567286954242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1E-10</v>
+      </c>
+      <c r="B87">
+        <v>0.23438829100658962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B88">
+        <v>0.27182074236192333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="B89">
+        <v>0.18982584891690718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B90">
+        <v>0.58554033467328903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B91">
+        <v>0.5560879440550186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B92">
+        <v>0.53632692707064744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1E-8</v>
+      </c>
+      <c r="B93">
+        <v>0.37411963786420277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B94">
+        <v>0.31707971198940865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1E-10</v>
+      </c>
+      <c r="B95">
+        <v>0.27182074236192333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B96">
+        <v>0.20586832806919275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="B97">
+        <v>0.21934691111684559</v>
       </c>
     </row>
   </sheetData>

--- a/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
+++ b/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCABD-813D-6B44-96F4-6BB88476E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A81A1-44A5-1447-BBC6-F96DA0911C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1400" windowWidth="35520" windowHeight="19600" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
+    <workbookView xWindow="160" yWindow="3820" windowWidth="35300" windowHeight="17340" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6D784-14E3-CF43-B83D-016E7ECE788B}">
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:T28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -467,7 +467,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -478,7 +478,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -494,85 +494,97 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J4">
-        <v>57.990420655910199</v>
+        <v>104.565685086619</v>
       </c>
       <c r="K4">
-        <v>51.9159655201559</v>
+        <v>108.071350151296</v>
       </c>
       <c r="L4">
-        <v>53.935388599048203</v>
+        <v>111.641758812281</v>
       </c>
       <c r="M4">
-        <v>61.997219069882298</v>
+        <v>105.691314707329</v>
       </c>
       <c r="N4">
-        <v>51.177728721562197</v>
+        <v>105.66575842730499</v>
       </c>
       <c r="O4">
-        <v>41.606641105740401</v>
+        <v>103.572309066462</v>
       </c>
       <c r="P4">
-        <v>48.518733975808701</v>
+        <v>108.69679793314501</v>
       </c>
       <c r="Q4">
-        <v>43.178178811033703</v>
+        <v>102.67513243882</v>
       </c>
       <c r="R4">
-        <v>50.749776668274301</v>
+        <v>109.861659141952</v>
       </c>
       <c r="S4">
         <f>AVERAGE(J4:R4)</f>
-        <v>51.230005903046205</v>
+        <v>106.71575175168989</v>
       </c>
       <c r="T4">
-        <v>0.69785236114380456</v>
+        <v>0.66004871058427217</v>
       </c>
       <c r="U4">
         <f>(T4-T11)/(S4-S11)</f>
-        <v>1.2167791245458994E-2</v>
+        <v>4.535499920485556E-3</v>
       </c>
       <c r="V4">
         <f>(S4*T11-T4*S11)/(S4-S11)</f>
-        <v>7.449634381190634E-2</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="W4">
-        <f>J4*$U$4+$V$4</f>
-        <v>0.78011167658937497</v>
+        <f>G4*$U$4+$V$4</f>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:AF11" si="0">K4*$U$4+$V$4</f>
-        <v>0.70619897456761027</v>
+        <f t="shared" ref="X4:AI11" si="0">H4*$U$4+$V$4</f>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.73077089302783382</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.82886556325322358</v>
+        <v>0.65029708339580439</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.69721626331260622</v>
+        <v>0.66619702701789607</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.58075726721128862</v>
+        <v>0.68239061521589428</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.66486217032350536</v>
+        <v>0.65540237645103083</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.59987940994366529</v>
+        <v>0.65528646594501405</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.69200903206513353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.64579162653537014</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0.66903374538273996</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0.64172248201203841</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0.67431697330266083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1E-8</v>
       </c>
@@ -588,70 +600,82 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="J5">
-        <v>55.050308482495403</v>
+        <v>108.071350151296</v>
       </c>
       <c r="K5">
-        <v>61.512271619664297</v>
+        <v>104.09724758981901</v>
       </c>
       <c r="L5">
-        <v>68.0066065549873</v>
+        <v>103.628810093019</v>
       </c>
       <c r="M5">
-        <v>52.387797034024203</v>
+        <v>117.343073543982</v>
       </c>
       <c r="N5">
-        <v>53.220065522356499</v>
+        <v>105.24962418313901</v>
       </c>
       <c r="O5">
-        <v>50.684925637322998</v>
+        <v>106.485248775625</v>
       </c>
       <c r="P5">
-        <v>55.024150349389998</v>
+        <v>109.575267712989</v>
       </c>
       <c r="Q5">
-        <v>61.045815843715197</v>
+        <v>105.695612932462</v>
       </c>
       <c r="R5">
-        <v>60.660744689605998</v>
+        <v>105.498253482168</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W11" si="2">J5*$U$4+$V$4</f>
-        <v>0.7443370054250309</v>
+        <f t="shared" ref="W5:W11" si="2">G5*$U$4+$V$4</f>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.82296482391395331</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.90198653568505516</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.71194012193138878</v>
+        <v>0.66619702701789607</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.72206699115758988</v>
+        <v>0.64817248516631565</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.69121993825846517</v>
+        <v>0.64604788693682669</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.74401871872203351</v>
+        <v>0.70824892772818737</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.81728908740696604</v>
+        <v>0.65339908911368794</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.81260362198911729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.65900326435465817</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0.67301804499937146</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0.65542187105077976</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0.65452674727966431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -667,70 +691,82 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="J6">
-        <v>57.521983159110597</v>
+        <v>100.623954323296</v>
       </c>
       <c r="K6">
-        <v>54.032503993510602</v>
+        <v>101.06002002194199</v>
       </c>
       <c r="L6">
-        <v>69.008225144894993</v>
+        <v>108.572159446249</v>
       </c>
       <c r="M6">
-        <v>67.823098488208501</v>
+        <v>91.984440929870104</v>
       </c>
       <c r="N6">
-        <v>50.345460233229801</v>
+        <v>91.101059881488993</v>
       </c>
       <c r="O6">
-        <v>67.406964244042399</v>
+        <v>100.256013253145</v>
       </c>
       <c r="P6">
-        <v>60.6510969431273</v>
+        <v>89.190196558880302</v>
       </c>
       <c r="Q6">
-        <v>65.310541778352302</v>
+        <v>102.290061284711</v>
       </c>
       <c r="R6">
-        <v>51.332207272677401</v>
+        <v>100.157698317392</v>
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>0.77441182691677191</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0.73195257287437276</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.9141740215946228</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0.89975364783663281</v>
+        <v>0.63241936383217756</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0.68708939408640379</v>
+        <v>0.63439713977371293</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0.89469021322353282</v>
+        <v>0.66846844753533374</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0.81248623022397548</v>
+        <v>0.5932348515232605</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0.86918138229872532</v>
+        <v>0.58922827684856949</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0.6990959260744769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.63075056713776423</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>0.58056155640081908</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0.63997599182319576</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0.63030465975447403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1E-10</v>
       </c>
@@ -746,70 +782,82 @@
         <v>1E-8</v>
       </c>
       <c r="J7">
-        <v>57.990420655910199</v>
+        <v>72.481518411417895</v>
       </c>
       <c r="K7">
-        <v>58.038978353141403</v>
+        <v>69.928914239417495</v>
       </c>
       <c r="L7">
-        <v>58.5559735471723</v>
+        <v>73.564066496711007</v>
       </c>
       <c r="M7">
-        <v>59.4876354648732</v>
+        <v>79.474857324861006</v>
       </c>
       <c r="N7">
-        <v>64.494024534879202</v>
+        <v>72.816709418202393</v>
       </c>
       <c r="O7">
-        <v>56.965273719851901</v>
+        <v>88.213676452350498</v>
       </c>
       <c r="P7">
-        <v>52.980819360739801</v>
+        <v>77.255193041855605</v>
       </c>
       <c r="Q7">
-        <v>51.529566722971303</v>
+        <v>82.201029306042798</v>
       </c>
       <c r="R7">
-        <v>53.464570239996</v>
+        <v>79.476587987841995</v>
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>0.78011167658937497</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0.78070251651264444</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0.78699320610851786</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0.79832947383444641</v>
+        <v>0.50477934799158453</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0.85924617093182709</v>
+        <v>0.49320201197244562</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0.76763790267549559</v>
+        <v>0.50968924474635324</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0.71915589380676037</v>
+        <v>0.53649763607743428</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0.70149735466597174</v>
+        <v>0.50629960677620311</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0.7250420735203571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.57613254953530058</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0.5264303488983586</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0.54886218888131433</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0.53650548549924704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -825,70 +873,82 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="J8">
-        <v>32.964523217386898</v>
+        <v>58.507415849941196</v>
       </c>
       <c r="K8">
-        <v>34.030885403602902</v>
+        <v>63.499322900402703</v>
       </c>
       <c r="L8">
-        <v>25.4523837930792</v>
+        <v>50.510653029756597</v>
       </c>
       <c r="M8">
-        <v>40.097057500731303</v>
+        <v>57.0036081398883</v>
       </c>
       <c r="N8">
-        <v>37.184117791568198</v>
+        <v>53.2711780824051</v>
       </c>
       <c r="O8">
-        <v>33.022775349906603</v>
+        <v>56.990829999876198</v>
       </c>
       <c r="P8">
-        <v>37.649911942443403</v>
+        <v>57.156513316708597</v>
       </c>
       <c r="Q8">
-        <v>37.3538727670025</v>
+        <v>57.067481338040402</v>
       </c>
       <c r="R8">
-        <v>31.0458158437152</v>
+        <v>46.672762437452398</v>
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>0.47560178082715637</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0.48857705330108397</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0.38419563650539784</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0.56238896903797064</v>
+        <v>0.44139980693514996</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0.52694492674626581</v>
+        <v>0.46404060096558941</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0.47631058061525899</v>
+        <v>0.40513048980006083</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0.53261261273747129</v>
+        <v>0.43457928718577948</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0.52901046985022848</v>
+        <v>0.41765085095684651</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0.45225535004319628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.43452133193277065</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>0.43527278860308977</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0.43486898407091951</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>0.38772373732383292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -904,70 +964,82 @@
         <v>1E-10</v>
       </c>
       <c r="J9">
-        <v>17.113169098182802</v>
+        <v>29.008225144895</v>
       </c>
       <c r="K9">
-        <v>12.4798998215102</v>
+        <v>34.4523837930792</v>
       </c>
       <c r="L9">
-        <v>13.4491466132638</v>
+        <v>33.983946296279399</v>
       </c>
       <c r="M9">
-        <v>18.445298664078798</v>
+        <v>31.606641105740401</v>
       </c>
       <c r="N9">
-        <v>23.400575174036302</v>
+        <v>27.4325205240667</v>
       </c>
       <c r="O9">
-        <v>23.867821978251101</v>
+        <v>34.910158779045403</v>
       </c>
       <c r="P9">
-        <v>24.581130750022101</v>
+        <v>23.957968865730798</v>
       </c>
       <c r="Q9">
-        <v>25.803940404087101</v>
+        <v>30.405436794053301</v>
       </c>
       <c r="R9">
-        <v>23.416269541215801</v>
+        <v>38.518733975808701</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>0.28272581294683441</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0.22634915960428342</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0.23814275223167208</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0.29893488741656082</v>
+        <v>0.30760622983802466</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0.35922965755325031</v>
+        <v>0.33229821095397488</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0.36491501912704383</v>
+        <v>0.33017361272448692</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0.37359441135550814</v>
+        <v>0.31939134522182744</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0.38847330395910296</v>
+        <v>0.30045962165554918</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0.35942062333682007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.33437444936642491</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>0.28470079288544375</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0.31394328316168363</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>0.35074114188441097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -983,70 +1055,82 @@
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="J10">
-        <v>12.1228806376291</v>
+        <v>15.466951102248601</v>
       </c>
       <c r="K10">
-        <v>16.471806871971701</v>
+        <v>16.969378987110101</v>
       </c>
       <c r="L10">
-        <v>13.4507652031715</v>
+        <v>15.466951102248601</v>
       </c>
       <c r="M10">
-        <v>19.967660409099999</v>
+        <v>17.793539827426301</v>
       </c>
       <c r="N10">
-        <v>10.3965727932784</v>
+        <v>12.345460233229799</v>
       </c>
       <c r="O10">
-        <v>11.2160631415986</v>
+        <v>19.016386279900601</v>
       </c>
       <c r="P10">
-        <v>13.998700145619001</v>
+        <v>11.243175294009101</v>
       </c>
       <c r="Q10">
-        <v>12.8338389368128</v>
+        <v>23.375538261327701</v>
       </c>
       <c r="R10">
-        <v>21.0458158437152</v>
+        <v>17.640264195964701</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0.22200502470419406</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>0.27492185126557489</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0.23816244689578098</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>0.31745866733005146</v>
+        <v>0.24618978249432882</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0.20099967122873641</v>
+        <v>0.25300404404665344</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>0.21097105871476507</v>
+        <v>0.24618978249432882</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>0.24482960489157476</v>
+        <v>0.2567420254723749</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>0.23065581687288789</v>
+        <v>0.23203226090609766</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>0.33057743758860636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.26228824546033813</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>0.22703284765190976</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>0.28205917892548515</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>0.25604684385806842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1062,77 +1146,89 @@
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="J11">
-        <v>14.4523837930792</v>
+        <v>10.45885815271</v>
       </c>
       <c r="K11">
-        <v>7.4086818655711397</v>
+        <v>6.9531930880330002</v>
       </c>
       <c r="L11">
-        <v>15.644731601383199</v>
+        <v>10.4912299508642</v>
       </c>
       <c r="M11">
-        <v>14.948493199081801</v>
+        <v>12.7999288974324</v>
       </c>
       <c r="N11">
-        <v>14.1417809907738</v>
+        <v>9.4580768040909007</v>
       </c>
       <c r="O11">
-        <v>13.725646746607699</v>
+        <v>10.2903452924233</v>
       </c>
       <c r="P11">
-        <v>12.9904671072184</v>
+        <v>13.7606094154369</v>
       </c>
       <c r="Q11">
-        <v>11.3946040468907</v>
+        <v>15.310541778352301</v>
       </c>
       <c r="R11">
-        <v>10.5620649644591</v>
+        <v>18.222694800367901</v>
       </c>
       <c r="S11">
         <f>AVERAGE(J11:R11)</f>
-        <v>12.807650479451672</v>
+        <v>11.971719797745656</v>
       </c>
       <c r="T11">
         <v>0.2303371611906771</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>0.2503499328053489</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>0.16464363815619365</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>0.26485817202877249</v>
+        <v>0.17603942699992631</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>0.25638648849249718</v>
+        <v>0.22347557731991222</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>0.2465705827466422</v>
+        <v>0.2075756336978207</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>0.24150714813354224</v>
+        <v>0.22362239960786656</v>
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>0.23256163575354141</v>
+        <v>0.23409350349645172</v>
       </c>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>0.21314350717913463</v>
+        <v>0.21893653359282686</v>
       </c>
       <c r="AE11">
         <f t="shared" si="0"/>
-        <v>0.20301334542042093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.22271128725548112</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>0.23845066990947317</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>0.24548038801823396</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>0.25868845781802746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1143,7 +1239,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1E-8</v>
       </c>
@@ -1154,7 +1250,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1165,7 +1261,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1E-10</v>
       </c>
@@ -1175,7 +1271,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1185,7 +1281,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -1195,7 +1291,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1205,7 +1301,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1215,7 +1311,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1225,7 +1321,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1E-8</v>
       </c>
@@ -1234,35 +1330,8 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="L21">
-        <v>0.78011167658937497</v>
-      </c>
-      <c r="M21">
-        <v>0.70619897456761027</v>
-      </c>
-      <c r="N21">
-        <v>0.73077089302783382</v>
-      </c>
-      <c r="O21">
-        <v>0.82886556325322358</v>
-      </c>
-      <c r="P21">
-        <v>0.69721626331260622</v>
-      </c>
-      <c r="Q21">
-        <v>0.58075726721128862</v>
-      </c>
-      <c r="R21">
-        <v>0.66486217032350536</v>
-      </c>
-      <c r="S21">
-        <v>0.59987940994366529</v>
-      </c>
-      <c r="T21">
-        <v>0.69200903206513353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1271,35 +1340,8 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="L22">
-        <v>0.7443370054250309</v>
-      </c>
-      <c r="M22">
-        <v>0.82296482391395331</v>
-      </c>
-      <c r="N22">
-        <v>0.90198653568505516</v>
-      </c>
-      <c r="O22">
-        <v>0.71194012193138878</v>
-      </c>
-      <c r="P22">
-        <v>0.72206699115758988</v>
-      </c>
-      <c r="Q22">
-        <v>0.69121993825846517</v>
-      </c>
-      <c r="R22">
-        <v>0.74401871872203351</v>
-      </c>
-      <c r="S22">
-        <v>0.81728908740696604</v>
-      </c>
-      <c r="T22">
-        <v>0.81260362198911729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1E-10</v>
       </c>
@@ -1309,35 +1351,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="L23">
-        <v>0.77441182691677191</v>
-      </c>
-      <c r="M23">
-        <v>0.73195257287437276</v>
-      </c>
-      <c r="N23">
-        <v>0.9141740215946228</v>
-      </c>
-      <c r="O23">
-        <v>0.89975364783663281</v>
-      </c>
-      <c r="P23">
-        <v>0.68708939408640379</v>
-      </c>
-      <c r="Q23">
-        <v>0.89469021322353282</v>
-      </c>
-      <c r="R23">
-        <v>0.81248623022397548</v>
-      </c>
-      <c r="S23">
-        <v>0.86918138229872532</v>
-      </c>
-      <c r="T23">
-        <v>0.6990959260744769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1345,175 +1360,40 @@
         <v>0.21693971444304916</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="L24">
-        <v>0.78011167658937497</v>
-      </c>
-      <c r="M24">
-        <v>0.78070251651264444</v>
-      </c>
-      <c r="N24">
-        <v>0.78699320610851786</v>
-      </c>
-      <c r="O24">
-        <v>0.79832947383444641</v>
-      </c>
-      <c r="P24">
-        <v>0.85924617093182709</v>
-      </c>
-      <c r="Q24">
-        <v>0.76763790267549559</v>
-      </c>
-      <c r="R24">
-        <v>0.71915589380676037</v>
-      </c>
-      <c r="S24">
-        <v>0.70149735466597174</v>
-      </c>
-      <c r="T24">
-        <v>0.7250420735203571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="B25">
         <v>0.21933484891397265</v>
       </c>
-      <c r="L25">
-        <v>0.47560178082715637</v>
-      </c>
-      <c r="M25">
-        <v>0.48857705330108397</v>
-      </c>
-      <c r="N25">
-        <v>0.38419563650539784</v>
-      </c>
-      <c r="O25">
-        <v>0.56238896903797064</v>
-      </c>
-      <c r="P25">
-        <v>0.52694492674626581</v>
-      </c>
-      <c r="Q25">
-        <v>0.47631058061525899</v>
-      </c>
-      <c r="R25">
-        <v>0.53261261273747129</v>
-      </c>
-      <c r="S25">
-        <v>0.52901046985022848</v>
-      </c>
-      <c r="T25">
-        <v>0.45225535004319628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B26">
         <v>0.67890383166110957</v>
       </c>
-      <c r="L26">
-        <v>0.28272581294683441</v>
-      </c>
-      <c r="M26">
-        <v>0.22634915960428342</v>
-      </c>
-      <c r="N26">
-        <v>0.23814275223167208</v>
-      </c>
-      <c r="O26">
-        <v>0.29893488741656082</v>
-      </c>
-      <c r="P26">
-        <v>0.35922965755325031</v>
-      </c>
-      <c r="Q26">
-        <v>0.36491501912704383</v>
-      </c>
-      <c r="R26">
-        <v>0.37359441135550814</v>
-      </c>
-      <c r="S26">
-        <v>0.38847330395910296</v>
-      </c>
-      <c r="T26">
-        <v>0.35942062333682007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B27">
         <v>0.56609313673009343</v>
       </c>
-      <c r="L27">
-        <v>0.22200502470419406</v>
-      </c>
-      <c r="M27">
-        <v>0.27492185126557489</v>
-      </c>
-      <c r="N27">
-        <v>0.23816244689578098</v>
-      </c>
-      <c r="O27">
-        <v>0.31745866733005146</v>
-      </c>
-      <c r="P27">
-        <v>0.20099967122873641</v>
-      </c>
-      <c r="Q27">
-        <v>0.21097105871476507</v>
-      </c>
-      <c r="R27">
-        <v>0.24482960489157476</v>
-      </c>
-      <c r="S27">
-        <v>0.23065581687288789</v>
-      </c>
-      <c r="T27">
-        <v>0.33057743758860636</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B28">
         <v>0.56183612937420613</v>
       </c>
-      <c r="L28">
-        <v>0.2503499328053489</v>
-      </c>
-      <c r="M28">
-        <v>0.16464363815619365</v>
-      </c>
-      <c r="N28">
-        <v>0.26485817202877249</v>
-      </c>
-      <c r="O28">
-        <v>0.25638648849249718</v>
-      </c>
-      <c r="P28">
-        <v>0.2465705827466422</v>
-      </c>
-      <c r="Q28">
-        <v>0.24150714813354224</v>
-      </c>
-      <c r="R28">
-        <v>0.23256163575354141</v>
-      </c>
-      <c r="S28">
-        <v>0.21314350717913463</v>
-      </c>
-      <c r="T28">
-        <v>0.20301334542042093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1E-8</v>
       </c>
@@ -1521,7 +1401,7 @@
         <v>0.54267959627271245</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1529,7 +1409,7 @@
         <v>0.32757000583941687</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1E-10</v>
       </c>
@@ -1537,7 +1417,7 @@
         <v>0.27448813285180595</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1624,6 +1504,12 @@
       <c r="G36">
         <v>0.64972803363918596</v>
       </c>
+      <c r="H36">
+        <v>5.3645714723228183E-3</v>
+      </c>
+      <c r="I36">
+        <v>0.18621844507318563</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -1662,7 +1548,13 @@
         <v>0.25641416287592267</v>
       </c>
       <c r="G38">
-        <v>0.74358583712407733</v>
+        <v>0.743585837124077</v>
+      </c>
+      <c r="H38">
+        <v>7.1437152206654947E-3</v>
+      </c>
+      <c r="I38">
+        <v>0.1461438664694201</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1681,6 +1573,12 @@
       <c r="G39">
         <v>0.66004871058427217</v>
       </c>
+      <c r="H39">
+        <v>4.535499920485556E-3</v>
+      </c>
+      <c r="I39">
+        <v>0.17603942699992631</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1698,6 +1596,12 @@
       <c r="G40">
         <v>0.73504434798145968</v>
       </c>
+      <c r="H40">
+        <v>5.2777296586990442E-3</v>
+      </c>
+      <c r="I40">
+        <v>0.16530396016903268</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1714,6 +1618,12 @@
       </c>
       <c r="G41">
         <v>0.82870862213078955</v>
+      </c>
+      <c r="H41">
+        <v>5.7709454969869182E-3</v>
+      </c>
+      <c r="I41">
+        <v>0.15187001823997909</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">

--- a/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
+++ b/jiawei_trupath_csv/MOR_Gi1_normalize_deer+Gi_scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A81A1-44A5-1447-BBC6-F96DA0911C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DFADE-77C0-054E-A036-0DF1061BAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="3820" windowWidth="35300" windowHeight="17340" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
+    <workbookView xWindow="4700" yWindow="2260" windowWidth="28800" windowHeight="16560" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6D784-14E3-CF43-B83D-016E7ECE788B}">
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -467,7 +467,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -478,7 +478,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -536,55 +536,43 @@
         <v>0.17603942699992631</v>
       </c>
       <c r="W4">
-        <f>G4*$U$4+$V$4</f>
-        <v>0.17603942699992631</v>
+        <f>J4*$U$4+$V$4</f>
+        <v>0.65029708339580439</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:AI11" si="0">H4*$U$4+$V$4</f>
-        <v>0.17603942699992631</v>
+        <f t="shared" ref="X4:AH11" si="0">K4*$U$4+$V$4</f>
+        <v>0.66619702701789607</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.68239061521589428</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.65029708339580439</v>
+        <v>0.65540237645103083</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.66619702701789607</v>
+        <v>0.65528646594501405</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.68239061521589428</v>
+        <v>0.64579162653537014</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.65540237645103083</v>
+        <v>0.66903374538273996</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.65528646594501405</v>
+        <v>0.64172248201203841</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.64579162653537014</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>0.66903374538273996</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>0.64172248201203841</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
         <v>0.67431697330266083</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1E-8</v>
       </c>
@@ -627,55 +615,43 @@
         <v>105.498253482168</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W11" si="2">G5*$U$4+$V$4</f>
-        <v>0.17603942699992631</v>
+        <f t="shared" ref="W5:W11" si="2">J5*$U$4+$V$4</f>
+        <v>0.66619702701789607</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.64817248516631565</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.64604788693682669</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.66619702701789607</v>
+        <v>0.70824892772818737</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.64817248516631565</v>
+        <v>0.65339908911368794</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.64604788693682669</v>
+        <v>0.65900326435465817</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.70824892772818737</v>
+        <v>0.67301804499937146</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.65339908911368794</v>
+        <v>0.65542187105077976</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.65900326435465817</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>0.67301804499937146</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>0.65542187105077976</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
         <v>0.65452674727966431</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -719,54 +695,42 @@
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.63241936383217756</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.63439713977371293</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.66846844753533374</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0.63241936383217756</v>
+        <v>0.5932348515232605</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0.63439713977371293</v>
+        <v>0.58922827684856949</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0.66846844753533374</v>
+        <v>0.63075056713776423</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0.5932348515232605</v>
+        <v>0.58056155640081908</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0.58922827684856949</v>
+        <v>0.63997599182319576</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0.63075056713776423</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>0.58056155640081908</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>0.63997599182319576</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
         <v>0.63030465975447403</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1E-10</v>
       </c>
@@ -810,54 +774,42 @@
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.50477934799158453</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.49320201197244562</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.50968924474635324</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0.50477934799158453</v>
+        <v>0.53649763607743428</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0.49320201197244562</v>
+        <v>0.50629960677620311</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0.50968924474635324</v>
+        <v>0.57613254953530058</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0.53649763607743428</v>
+        <v>0.5264303488983586</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0.50629960677620311</v>
+        <v>0.54886218888131433</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0.57613254953530058</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>0.5264303488983586</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>0.54886218888131433</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="0"/>
         <v>0.53650548549924704</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -901,54 +853,42 @@
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.44139980693514996</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.46404060096558941</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.40513048980006083</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0.44139980693514996</v>
+        <v>0.43457928718577948</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0.46404060096558941</v>
+        <v>0.41765085095684651</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0.40513048980006083</v>
+        <v>0.43452133193277065</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0.43457928718577948</v>
+        <v>0.43527278860308977</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0.41765085095684651</v>
+        <v>0.43486898407091951</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0.43452133193277065</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>0.43527278860308977</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>0.43486898407091951</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="0"/>
         <v>0.38772373732383292</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -992,54 +932,42 @@
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.30760622983802466</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.33229821095397488</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.33017361272448692</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0.30760622983802466</v>
+        <v>0.31939134522182744</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0.33229821095397488</v>
+        <v>0.30045962165554918</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0.33017361272448692</v>
+        <v>0.33437444936642491</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0.31939134522182744</v>
+        <v>0.28470079288544375</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0.30045962165554918</v>
+        <v>0.31394328316168363</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0.33437444936642491</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>0.28470079288544375</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="0"/>
-        <v>0.31394328316168363</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="0"/>
         <v>0.35074114188441097</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1083,54 +1011,42 @@
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.24618978249432882</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.25300404404665344</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.24618978249432882</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>0.24618978249432882</v>
+        <v>0.2567420254723749</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0.25300404404665344</v>
+        <v>0.23203226090609766</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>0.24618978249432882</v>
+        <v>0.26228824546033813</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>0.2567420254723749</v>
+        <v>0.22703284765190976</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>0.23203226090609766</v>
+        <v>0.28205917892548515</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>0.26228824546033813</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>0.22703284765190976</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="0"/>
-        <v>0.28205917892548515</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="0"/>
         <v>0.25604684385806842</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1181,54 +1097,42 @@
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>0.17603942699992631</v>
+        <v>0.22347557731991222</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.2075756336978207</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>0.17603942699992631</v>
+        <v>0.22362239960786656</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>0.22347557731991222</v>
+        <v>0.23409350349645172</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>0.2075756336978207</v>
+        <v>0.21893653359282686</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>0.22362239960786656</v>
+        <v>0.22271128725548112</v>
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>0.23409350349645172</v>
+        <v>0.23845066990947317</v>
       </c>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>0.21893653359282686</v>
+        <v>0.24548038801823396</v>
       </c>
       <c r="AE11">
         <f t="shared" si="0"/>
-        <v>0.22271128725548112</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="0"/>
-        <v>0.23845066990947317</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="0"/>
-        <v>0.24548038801823396</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="0"/>
         <v>0.25868845781802746</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1239,7 +1143,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1E-8</v>
       </c>
@@ -1250,7 +1154,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1261,7 +1165,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1E-10</v>
       </c>
@@ -1271,7 +1175,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1281,7 +1185,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -1291,7 +1195,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1301,7 +1205,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1310,8 +1214,35 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.65029708339580439</v>
+      </c>
+      <c r="G19">
+        <v>0.66619702701789607</v>
+      </c>
+      <c r="H19">
+        <v>0.68239061521589428</v>
+      </c>
+      <c r="I19">
+        <v>0.65540237645103083</v>
+      </c>
+      <c r="J19">
+        <v>0.65528646594501405</v>
+      </c>
+      <c r="K19">
+        <v>0.64579162653537014</v>
+      </c>
+      <c r="L19">
+        <v>0.66903374538273996</v>
+      </c>
+      <c r="M19">
+        <v>0.64172248201203841</v>
+      </c>
+      <c r="N19">
+        <v>0.67431697330266083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1320,8 +1251,35 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.66619702701789607</v>
+      </c>
+      <c r="G20">
+        <v>0.64817248516631565</v>
+      </c>
+      <c r="H20">
+        <v>0.64604788693682669</v>
+      </c>
+      <c r="I20">
+        <v>0.70824892772818737</v>
+      </c>
+      <c r="J20">
+        <v>0.65339908911368794</v>
+      </c>
+      <c r="K20">
+        <v>0.65900326435465817</v>
+      </c>
+      <c r="L20">
+        <v>0.67301804499937146</v>
+      </c>
+      <c r="M20">
+        <v>0.65542187105077976</v>
+      </c>
+      <c r="N20">
+        <v>0.65452674727966431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1E-8</v>
       </c>
@@ -1330,8 +1288,35 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.63241936383217756</v>
+      </c>
+      <c r="G21">
+        <v>0.63439713977371293</v>
+      </c>
+      <c r="H21">
+        <v>0.66846844753533374</v>
+      </c>
+      <c r="I21">
+        <v>0.5932348515232605</v>
+      </c>
+      <c r="J21">
+        <v>0.58922827684856949</v>
+      </c>
+      <c r="K21">
+        <v>0.63075056713776423</v>
+      </c>
+      <c r="L21">
+        <v>0.58056155640081908</v>
+      </c>
+      <c r="M21">
+        <v>0.63997599182319576</v>
+      </c>
+      <c r="N21">
+        <v>0.63030465975447403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1340,8 +1325,35 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.50477934799158453</v>
+      </c>
+      <c r="G22">
+        <v>0.49320201197244562</v>
+      </c>
+      <c r="H22">
+        <v>0.50968924474635324</v>
+      </c>
+      <c r="I22">
+        <v>0.53649763607743428</v>
+      </c>
+      <c r="J22">
+        <v>0.50629960677620311</v>
+      </c>
+      <c r="K22">
+        <v>0.57613254953530058</v>
+      </c>
+      <c r="L22">
+        <v>0.5264303488983586</v>
+      </c>
+      <c r="M22">
+        <v>0.54886218888131433</v>
+      </c>
+      <c r="N22">
+        <v>0.53650548549924704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1E-10</v>
       </c>
@@ -1351,33 +1363,140 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.44139980693514996</v>
+      </c>
+      <c r="G23">
+        <v>0.46404060096558941</v>
+      </c>
+      <c r="H23">
+        <v>0.40513048980006083</v>
+      </c>
+      <c r="I23">
+        <v>0.43457928718577948</v>
+      </c>
+      <c r="J23">
+        <v>0.41765085095684651</v>
+      </c>
+      <c r="K23">
+        <v>0.43452133193277065</v>
+      </c>
+      <c r="L23">
+        <v>0.43527278860308977</v>
+      </c>
+      <c r="M23">
+        <v>0.43486898407091951</v>
+      </c>
+      <c r="N23">
+        <v>0.38772373732383292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B24">
         <v>0.21693971444304916</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.30760622983802466</v>
+      </c>
+      <c r="G24">
+        <v>0.33229821095397488</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.33017361272448692</v>
+      </c>
+      <c r="I24">
+        <v>0.31939134522182744</v>
+      </c>
+      <c r="J24">
+        <v>0.30045962165554918</v>
+      </c>
+      <c r="K24">
+        <v>0.33437444936642491</v>
+      </c>
+      <c r="L24">
+        <v>0.28470079288544375</v>
+      </c>
+      <c r="M24">
+        <v>0.31394328316168363</v>
+      </c>
+      <c r="N24">
+        <v>0.35074114188441097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="B25">
         <v>0.21933484891397265</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.24618978249432882</v>
+      </c>
+      <c r="G25">
+        <v>0.25300404404665344</v>
+      </c>
+      <c r="H25">
+        <v>0.24618978249432882</v>
+      </c>
+      <c r="I25">
+        <v>0.2567420254723749</v>
+      </c>
+      <c r="J25">
+        <v>0.23203226090609766</v>
+      </c>
+      <c r="K25">
+        <v>0.26228824546033813</v>
+      </c>
+      <c r="L25">
+        <v>0.22703284765190976</v>
+      </c>
+      <c r="M25">
+        <v>0.28205917892548515</v>
+      </c>
+      <c r="N25">
+        <v>0.25604684385806842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B26">
         <v>0.67890383166110957</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.22347557731991222</v>
+      </c>
+      <c r="G26">
+        <v>0.2075756336978207</v>
+      </c>
+      <c r="H26">
+        <v>0.22362239960786656</v>
+      </c>
+      <c r="I26">
+        <v>0.23409350349645172</v>
+      </c>
+      <c r="J26">
+        <v>0.21893653359282686</v>
+      </c>
+      <c r="K26">
+        <v>0.22271128725548112</v>
+      </c>
+      <c r="L26">
+        <v>0.23845066990947317</v>
+      </c>
+      <c r="M26">
+        <v>0.24548038801823396</v>
+      </c>
+      <c r="N26">
+        <v>0.25868845781802746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1385,7 +1504,7 @@
         <v>0.56609313673009343</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1393,7 +1512,7 @@
         <v>0.56183612937420613</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1E-8</v>
       </c>
@@ -1401,7 +1520,7 @@
         <v>0.54267959627271245</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1409,7 +1528,7 @@
         <v>0.32757000583941687</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1E-10</v>
       </c>
@@ -1417,7 +1536,7 @@
         <v>0.27448813285180595</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9.9999999999999994E-12</v>
       </c>
